--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantList" sheetId="3" r:id="rId1"/>
+    <sheet name="ProcessList" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -321,7 +321,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -626,7 +626,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -321,7 +321,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -626,7 +626,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>MW</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>AUSTRIA_COA_CHP_BP_DH_1995</t>
-  </si>
-  <si>
-    <t>AUSTRIA_REW_HYD_PS_2009</t>
   </si>
   <si>
     <t>AUSTRIA_BIO_CHP_2003</t>
@@ -623,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -657,73 +654,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -793,13 +790,13 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5">
         <v>260</v>
@@ -864,13 +861,13 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5">
         <v>300</v>
@@ -935,13 +932,13 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5">
         <v>30</v>
@@ -1006,7 +1003,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
@@ -1077,7 +1074,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
@@ -1148,7 +1145,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
@@ -1219,7 +1216,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
@@ -1290,13 +1287,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5">
         <v>600</v>
@@ -1361,7 +1358,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>9</v>
@@ -1432,13 +1429,13 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5">
         <v>100</v>
@@ -1503,13 +1500,13 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5">
         <v>1600</v>
@@ -1574,7 +1571,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -1645,13 +1642,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5">
         <v>300</v>
@@ -1716,13 +1713,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5">
         <v>2000</v>
@@ -1787,13 +1784,13 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="5">
         <v>600</v>
@@ -1858,13 +1855,13 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="5">
         <v>300</v>
@@ -1929,13 +1926,13 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="5">
         <v>300</v>
@@ -2000,7 +1997,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>8</v>
@@ -2071,28 +2068,28 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D21" s="5">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E21" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4">
         <v>60</v>
       </c>
       <c r="G21" s="4">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="H21" s="4">
-        <v>2068</v>
+        <v>2075</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -2142,31 +2139,31 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5">
-        <v>500</v>
+        <v>785</v>
       </c>
       <c r="E22" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F22" s="4">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G22" s="4">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="H22" s="4">
-        <v>2075</v>
+        <v>2029</v>
       </c>
       <c r="I22" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J22" s="4">
         <v>95</v>
@@ -2175,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M22" s="4">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N22" s="4">
         <v>0</v>
       </c>
       <c r="O22" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P22" s="4">
         <v>0</v>
@@ -2193,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="R22" s="4">
-        <v>3293</v>
+        <v>1942</v>
       </c>
       <c r="S22" s="4">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="T22" s="4">
         <v>1E-3</v>
@@ -2213,31 +2210,31 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5">
+        <v>282.32499999999999</v>
+      </c>
+      <c r="E23" s="4">
+        <v>52</v>
+      </c>
+      <c r="F23" s="4">
         <v>25</v>
       </c>
-      <c r="D23" s="5">
-        <v>785</v>
-      </c>
-      <c r="E23" s="4">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4">
-        <v>20</v>
-      </c>
       <c r="G23" s="4">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="H23" s="4">
         <v>2029</v>
       </c>
       <c r="I23" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J23" s="4">
         <v>95</v>
@@ -2264,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="R23" s="4">
-        <v>1942</v>
+        <v>1700</v>
       </c>
       <c r="S23" s="4">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="T23" s="4">
         <v>1E-3</v>
@@ -2283,144 +2280,73 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="7">
+        <v>830.45</v>
+      </c>
+      <c r="E24" s="3">
         <v>21</v>
       </c>
-      <c r="D24" s="5">
-        <v>282.32499999999999</v>
-      </c>
-      <c r="E24" s="4">
-        <v>52</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>25</v>
       </c>
-      <c r="G24" s="4">
-        <v>2014</v>
-      </c>
-      <c r="H24" s="4">
-        <v>2039</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="G24" s="3">
+        <v>2013</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2038</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>95</v>
       </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>0</v>
-      </c>
-      <c r="R24" s="4">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="3">
         <v>26</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="3">
         <v>1E-3</v>
       </c>
-      <c r="U24" s="4">
-        <v>5</v>
-      </c>
-      <c r="V24" s="4">
-        <v>0</v>
-      </c>
-      <c r="W24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="7">
-        <v>830.45</v>
-      </c>
-      <c r="E25" s="3">
-        <v>21</v>
-      </c>
-      <c r="F25" s="3">
-        <v>25</v>
-      </c>
-      <c r="G25" s="3">
-        <v>2013</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2038</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>95</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>100</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S25" s="3">
-        <v>26</v>
-      </c>
-      <c r="T25" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U25" s="3">
-        <v>5</v>
-      </c>
-      <c r="V25" s="3">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2">
+      <c r="U24" s="3">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1935,7 +1935,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E20" s="4">
         <v>5</v>
@@ -2077,7 +2077,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="5">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -823,7 +823,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3" s="4">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>40</v>
       </c>
       <c r="L4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>40</v>
       </c>
       <c r="L6" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>40</v>
       </c>
       <c r="L9" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>40</v>
       </c>
       <c r="L11" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>40</v>
       </c>
       <c r="L12" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>10</v>
       </c>
       <c r="L15" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M19" s="4">
         <v>85</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M20" s="4">
         <v>85</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M21" s="4">
         <v>85</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -873,7 +873,7 @@
         <v>300</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4">
         <v>40</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1086,7 @@
         <v>300</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="4">
         <v>40</v>
@@ -1228,7 +1228,7 @@
         <v>1500</v>
       </c>
       <c r="E9" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" s="4">
         <v>35</v>
@@ -1299,7 +1299,7 @@
         <v>600</v>
       </c>
       <c r="E10" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4">
         <v>35</v>
@@ -1512,7 +1512,7 @@
         <v>1600</v>
       </c>
       <c r="E13" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4">
         <v>35</v>
@@ -1583,7 +1583,7 @@
         <v>500</v>
       </c>
       <c r="E14" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="4">
         <v>35</v>
@@ -1725,7 +1725,7 @@
         <v>2000</v>
       </c>
       <c r="E16" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F16" s="4">
         <v>60</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -318,7 +318,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -334,7 +334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -623,7 +623,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -318,7 +318,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -334,7 +334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -623,7 +623,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="L16" sqref="L16:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1722,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="5">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="E16" s="4">
         <v>20</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
@@ -1793,10 +1793,10 @@
         <v>33</v>
       </c>
       <c r="D17" s="5">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="E17" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F17" s="4">
         <v>60</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>34</v>
       </c>
       <c r="D18" s="5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E18" s="4">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F18" s="4">
         <v>60</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M19" s="4">
         <v>85</v>
@@ -2009,7 +2009,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4">
         <v>60</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M20" s="4">
         <v>85</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M21" s="4">
         <v>85</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:L21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1154,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="5">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>27</v>
       </c>
       <c r="T8" s="4">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U8" s="4">
         <v>5</v>
@@ -1225,7 +1225,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E9" s="4">
         <v>8</v>
@@ -1273,7 +1273,7 @@
         <v>16</v>
       </c>
       <c r="T9" s="4">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U9" s="4">
         <v>5</v>
@@ -1509,7 +1509,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="5">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="E13" s="4">
         <v>10</v>
@@ -1557,7 +1557,7 @@
         <v>19</v>
       </c>
       <c r="T13" s="4">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U13" s="4">
         <v>5</v>
@@ -1628,7 +1628,7 @@
         <v>19</v>
       </c>
       <c r="T14" s="4">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U14" s="4">
         <v>5</v>
@@ -1699,7 +1699,7 @@
         <v>80</v>
       </c>
       <c r="T15" s="4">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U15" s="4">
         <v>5</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>MW</t>
   </si>
@@ -97,9 +97,6 @@
     <t>AUSTRIA_COA_CHP_BP_DH_2004</t>
   </si>
   <si>
-    <t>AUSTRIA_REW_HYD_PS_1981</t>
-  </si>
-  <si>
     <t>AUSTRIA_COA_CHP_BP_DH_1995</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
   </si>
   <si>
     <t>AUSTRIA_REW_HYD_LG_1975</t>
-  </si>
-  <si>
-    <t>AUSTRIA_GAS_CHP_BP_DH_2010</t>
   </si>
   <si>
     <t>AUSTRIA_REW_HYD_PS_1976</t>
@@ -318,7 +312,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -334,7 +328,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -620,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -654,73 +648,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -790,19 +784,19 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="5">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="E3" s="4">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4">
         <v>40</v>
@@ -861,16 +855,16 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
@@ -932,13 +926,13 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5">
         <v>30</v>
@@ -1003,16 +997,16 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1074,7 +1068,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
@@ -1083,7 +1077,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="5">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -1145,7 +1139,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
@@ -1154,7 +1148,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="5">
-        <v>1150</v>
+        <v>800</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -1216,7 +1210,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
@@ -1225,10 +1219,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="5">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E9" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="4">
         <v>35</v>
@@ -1287,13 +1281,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5">
         <v>600</v>
@@ -1358,7 +1352,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>9</v>
@@ -1429,28 +1423,28 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E12" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4">
         <v>35</v>
       </c>
       <c r="G12" s="4">
-        <v>2012</v>
+        <v>1978</v>
       </c>
       <c r="H12" s="4">
-        <v>2047</v>
+        <v>2013</v>
       </c>
       <c r="I12" s="4">
         <v>7</v>
@@ -1462,7 +1456,7 @@
         <v>40</v>
       </c>
       <c r="L12" s="4">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
@@ -1471,22 +1465,22 @@
         <v>0</v>
       </c>
       <c r="O12" s="4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="P12" s="4">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="4">
-        <v>38.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="R12" s="4">
-        <v>910</v>
+        <v>800</v>
       </c>
       <c r="S12" s="4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="T12" s="4">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U12" s="4">
         <v>5</v>
@@ -1500,28 +1494,28 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="E13" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4">
         <v>35</v>
       </c>
       <c r="G13" s="4">
-        <v>1978</v>
+        <v>1997</v>
       </c>
       <c r="H13" s="4">
-        <v>2013</v>
+        <v>2032</v>
       </c>
       <c r="I13" s="4">
         <v>7</v>
@@ -1557,7 +1551,7 @@
         <v>19</v>
       </c>
       <c r="T13" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U13" s="4">
         <v>5</v>
@@ -1571,28 +1565,28 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E14" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G14" s="4">
-        <v>1997</v>
+        <v>1987</v>
       </c>
       <c r="H14" s="4">
-        <v>2032</v>
+        <v>2017</v>
       </c>
       <c r="I14" s="4">
         <v>7</v>
@@ -1601,7 +1595,7 @@
         <v>95</v>
       </c>
       <c r="K14" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L14" s="4">
         <v>5</v>
@@ -1613,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P14" s="4">
         <v>0</v>
@@ -1622,60 +1616,60 @@
         <v>0</v>
       </c>
       <c r="R14" s="4">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="S14" s="4">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="T14" s="4">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U14" s="4">
         <v>5</v>
       </c>
       <c r="V14" s="4">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="W14" s="6">
-        <v>2550</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D15" s="5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E15" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F15" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G15" s="4">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="H15" s="4">
-        <v>2017</v>
+        <v>2041</v>
       </c>
       <c r="I15" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J15" s="4">
         <v>95</v>
       </c>
       <c r="K15" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
@@ -1684,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="P15" s="4">
         <v>0</v>
@@ -1696,33 +1690,33 @@
         <v>2000</v>
       </c>
       <c r="S15" s="4">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="T15" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U15" s="4">
         <v>5</v>
       </c>
       <c r="V15" s="4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W15" s="6">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D16" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E16" s="4">
         <v>20</v>
@@ -1731,10 +1725,10 @@
         <v>60</v>
       </c>
       <c r="G16" s="4">
-        <v>1981</v>
+        <v>1987</v>
       </c>
       <c r="H16" s="4">
-        <v>2041</v>
+        <v>2047</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
@@ -1784,7 +1778,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -1793,7 +1787,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="5">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E17" s="4">
         <v>20</v>
@@ -1802,10 +1796,10 @@
         <v>60</v>
       </c>
       <c r="G17" s="4">
-        <v>1987</v>
+        <v>2013</v>
       </c>
       <c r="H17" s="4">
-        <v>2047</v>
+        <v>2073</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -1855,31 +1849,31 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D18" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E18" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
         <v>60</v>
       </c>
       <c r="G18" s="4">
-        <v>2013</v>
+        <v>1976</v>
       </c>
       <c r="H18" s="4">
-        <v>2073</v>
+        <v>2036</v>
       </c>
       <c r="I18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
         <v>95</v>
@@ -1891,13 +1885,13 @@
         <v>20</v>
       </c>
       <c r="M18" s="4">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N18" s="4">
         <v>0</v>
       </c>
       <c r="O18" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P18" s="4">
         <v>0</v>
@@ -1906,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="R18" s="4">
-        <v>2000</v>
+        <v>3293</v>
       </c>
       <c r="S18" s="4">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="T18" s="4">
         <v>1E-3</v>
@@ -1926,7 +1920,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
@@ -1944,10 +1938,10 @@
         <v>60</v>
       </c>
       <c r="G19" s="4">
-        <v>1976</v>
+        <v>2015</v>
       </c>
       <c r="H19" s="4">
-        <v>2036</v>
+        <v>2075</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
@@ -1997,31 +1991,31 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" s="5">
-        <v>100</v>
+        <v>785</v>
       </c>
       <c r="E20" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F20" s="4">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G20" s="4">
-        <v>1988</v>
+        <v>2009</v>
       </c>
       <c r="H20" s="4">
-        <v>2048</v>
+        <v>2029</v>
       </c>
       <c r="I20" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J20" s="4">
         <v>95</v>
@@ -2030,16 +2024,16 @@
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M20" s="4">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4">
         <v>0</v>
       </c>
       <c r="O20" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P20" s="4">
         <v>0</v>
@@ -2048,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="4">
-        <v>3293</v>
+        <v>1942</v>
       </c>
       <c r="S20" s="4">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="T20" s="4">
         <v>1E-3</v>
@@ -2068,28 +2062,28 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D21" s="5">
-        <v>100</v>
+        <v>282.32499999999999</v>
       </c>
       <c r="E21" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="F21" s="4">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G21" s="4">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="H21" s="4">
-        <v>2075</v>
+        <v>2029</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -2101,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M21" s="4">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4">
         <v>0</v>
       </c>
       <c r="O21" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -2119,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="R21" s="4">
-        <v>3293</v>
+        <v>1700</v>
       </c>
       <c r="S21" s="4">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="T21" s="4">
         <v>1E-3</v>
@@ -2138,215 +2132,73 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="A22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="7">
+        <v>830.45</v>
+      </c>
+      <c r="E22" s="3">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3">
         <v>25</v>
       </c>
-      <c r="D22" s="5">
-        <v>785</v>
-      </c>
-      <c r="E22" s="4">
-        <v>6</v>
-      </c>
-      <c r="F22" s="4">
-        <v>20</v>
-      </c>
-      <c r="G22" s="4">
-        <v>2009</v>
-      </c>
-      <c r="H22" s="4">
-        <v>2029</v>
-      </c>
-      <c r="I22" s="4">
-        <v>6</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="G22" s="3">
+        <v>2013</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2038</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>95</v>
       </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4">
-        <v>1942</v>
-      </c>
-      <c r="S22" s="4">
-        <v>19</v>
-      </c>
-      <c r="T22" s="4">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S22" s="3">
+        <v>26</v>
+      </c>
+      <c r="T22" s="3">
         <v>1E-3</v>
       </c>
-      <c r="U22" s="4">
-        <v>5</v>
-      </c>
-      <c r="V22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="5">
-        <v>282.32499999999999</v>
-      </c>
-      <c r="E23" s="4">
-        <v>52</v>
-      </c>
-      <c r="F23" s="4">
-        <v>25</v>
-      </c>
-      <c r="G23" s="4">
-        <v>2004</v>
-      </c>
-      <c r="H23" s="4">
-        <v>2029</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>95</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4">
-        <v>100</v>
-      </c>
-      <c r="P23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4">
-        <v>1700</v>
-      </c>
-      <c r="S23" s="4">
-        <v>26</v>
-      </c>
-      <c r="T23" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="U23" s="4">
-        <v>5</v>
-      </c>
-      <c r="V23" s="4">
-        <v>0</v>
-      </c>
-      <c r="W23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="7">
-        <v>830.45</v>
-      </c>
-      <c r="E24" s="3">
-        <v>21</v>
-      </c>
-      <c r="F24" s="3">
-        <v>25</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2013</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2038</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>95</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S24" s="3">
-        <v>26</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U24" s="3">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2">
+      <c r="U22" s="3">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -617,7 +617,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -793,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="5">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
@@ -1077,7 +1077,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -1364,7 +1364,7 @@
         <v>100</v>
       </c>
       <c r="E11" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4">
         <v>35</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -617,7 +617,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -793,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4">
         <v>10</v>
@@ -802,10 +802,10 @@
         <v>40</v>
       </c>
       <c r="G3" s="4">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="H3" s="4">
-        <v>2052</v>
+        <v>2042</v>
       </c>
       <c r="I3" s="4">
         <v>7</v>
@@ -864,7 +864,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -617,7 +617,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -796,7 +796,7 @@
         <v>50</v>
       </c>
       <c r="E3" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <v>40</v>
@@ -867,7 +867,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
         <v>40</v>
@@ -1222,7 +1222,7 @@
         <v>1200</v>
       </c>
       <c r="E9" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4">
         <v>35</v>
@@ -1435,7 +1435,7 @@
         <v>500</v>
       </c>
       <c r="E12" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4">
         <v>35</v>
@@ -1577,7 +1577,7 @@
         <v>300</v>
       </c>
       <c r="E14" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="4">
         <v>30</v>
@@ -1648,7 +1648,7 @@
         <v>200</v>
       </c>
       <c r="E15" s="4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4">
         <v>60</v>
@@ -1719,7 +1719,7 @@
         <v>150</v>
       </c>
       <c r="E16" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F16" s="4">
         <v>60</v>
@@ -1790,7 +1790,7 @@
         <v>200</v>
       </c>
       <c r="E17" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
         <v>60</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneA1.xlsx
@@ -64,9 +64,6 @@
     <t>BIO_ST</t>
   </si>
   <si>
-    <t>COA_SUB_LN</t>
-  </si>
-  <si>
     <t>BIO_CHP</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>REW_PV_UTI</t>
   </si>
   <si>
-    <t>AUSTRIA_COA_SUB_LN_1962</t>
-  </si>
-  <si>
     <t>AUSTRIA_REW_WND_ON_2530_1996</t>
   </si>
   <si>
@@ -206,6 +200,12 @@
   </si>
   <si>
     <t>ZoneA1_Agr</t>
+  </si>
+  <si>
+    <t>COA_SUB_HC</t>
+  </si>
+  <si>
+    <t>AUSTRIA_COA_SUB_HC_1962</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -648,73 +648,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -784,13 +784,13 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5">
         <v>50</v>
@@ -855,13 +855,13 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5">
         <v>50</v>
@@ -926,13 +926,13 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5">
         <v>30</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5">
         <v>100</v>
@@ -1068,13 +1068,13 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5">
         <v>100</v>
@@ -1139,13 +1139,13 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="5">
         <v>800</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5">
         <v>1200</v>
@@ -1281,13 +1281,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5">
         <v>600</v>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5">
         <v>100</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5">
         <v>500</v>
@@ -1494,13 +1494,13 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5">
         <v>300</v>
@@ -1565,13 +1565,13 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="5">
         <v>300</v>
@@ -1636,13 +1636,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="5">
         <v>200</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="5">
         <v>150</v>
@@ -1778,13 +1778,13 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="5">
         <v>200</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5">
         <v>100</v>
@@ -1920,13 +1920,13 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="5">
         <v>100</v>
@@ -1991,13 +1991,13 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5">
         <v>785</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="5">
         <v>282.32499999999999</v>
@@ -2133,13 +2133,13 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="7">
         <v>830.45</v>
